--- a/NeedsHelp/bin/Debug/Notes.xlsx
+++ b/NeedsHelp/bin/Debug/Notes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\KursAutumn-master\NeedsHelp\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA2811-27BA-4F6E-9718-E414F198913F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F2184F-04B1-4440-A60C-EAFC02327E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,25 +25,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Start typing</t>
-  </si>
-  <si>
-    <t>19/02/2024 11:09</t>
-  </si>
-  <si>
-    <t>19/02/2024 11:11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>11111111111111</t>
+  </si>
+  <si>
+    <t>24/02/2024 03:00</t>
+  </si>
+  <si>
+    <t>222222222222</t>
+  </si>
+  <si>
+    <t>2222222222222222</t>
+  </si>
+  <si>
+    <t>3333333333</t>
+  </si>
+  <si>
+    <t>333333333333</t>
+  </si>
+  <si>
+    <t>24/02/2024 3:01</t>
+  </si>
+  <si>
+    <t>44444444444444</t>
+  </si>
+  <si>
+    <t>4444444444444444</t>
+  </si>
+  <si>
+    <t>555555555555555</t>
+  </si>
+  <si>
+    <t>5555555555555555</t>
+  </si>
+  <si>
+    <t>6666666666666666</t>
+  </si>
+  <si>
+    <t>666666666666666666</t>
+  </si>
+  <si>
+    <t>24/02/2024 03:01</t>
+  </si>
+  <si>
+    <t>777777777</t>
+  </si>
+  <si>
+    <t>7777777777</t>
+  </si>
+  <si>
+    <t>24/02/2024 02:58</t>
+  </si>
+  <si>
+    <t>8888888888888</t>
+  </si>
+  <si>
+    <t>888888888888888888</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,65 +403,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="A5:D25"/>
+      <selection activeCell="E4" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/NeedsHelp/bin/Debug/Notes.xlsx
+++ b/NeedsHelp/bin/Debug/Notes.xlsx
@@ -27,49 +27,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>1111111111</t>
-  </si>
-  <si>
-    <t>11111111111111</t>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>26/02/2024 10:23</t>
+  </si>
+  <si>
+    <t>222222222</t>
+  </si>
+  <si>
+    <t>22222222222</t>
+  </si>
+  <si>
+    <t>26/02/2024 11:10</t>
+  </si>
+  <si>
+    <t>3333333333</t>
+  </si>
+  <si>
+    <t>333333333333</t>
+  </si>
+  <si>
+    <t>24/02/2024 3:01</t>
+  </si>
+  <si>
+    <t>44444444444444</t>
+  </si>
+  <si>
+    <t>4444444444444444</t>
+  </si>
+  <si>
+    <t>555555555555555</t>
+  </si>
+  <si>
+    <t>5555555555555555</t>
   </si>
   <si>
     <t>24/02/2024 03:00</t>
   </si>
   <si>
-    <t>222222222222</t>
-  </si>
-  <si>
-    <t>2222222222222222</t>
-  </si>
-  <si>
-    <t>3333333333</t>
-  </si>
-  <si>
-    <t>333333333333</t>
-  </si>
-  <si>
-    <t>24/02/2024 3:01</t>
-  </si>
-  <si>
-    <t>44444444444444</t>
-  </si>
-  <si>
-    <t>4444444444444444</t>
-  </si>
-  <si>
-    <t>555555555555555</t>
-  </si>
-  <si>
-    <t>5555555555555555</t>
-  </si>
-  <si>
-    <t>6666666666666666</t>
-  </si>
-  <si>
-    <t>666666666666666666</t>
-  </si>
-  <si>
-    <t>24/02/2024 03:01</t>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>66666</t>
+  </si>
+  <si>
+    <t>26/02/2024 10:24</t>
   </si>
   <si>
     <t>777777777</t>
@@ -79,12 +85,6 @@
   </si>
   <si>
     <t>24/02/2024 02:58</t>
-  </si>
-  <si>
-    <t>8888888888888</t>
-  </si>
-  <si>
-    <t>888888888888888888</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="A3:E4"/>
@@ -430,73 +430,62 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
